--- a/docs/Requisitos.xlsx
+++ b/docs/Requisitos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BD\Trabalho\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FAC7444-504D-4FDC-A9CA-CA1541B4CA79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2328B929-00F1-4A30-B929-A43C4A199CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7355806C-21E4-4FEE-B325-8A5347955224}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="68">
   <si>
     <t>Média</t>
   </si>
@@ -49,9 +49,6 @@
     <t>É importante permitir que essa alteração seja dinâmica e condizente com o estado real do pedido</t>
   </si>
   <si>
-    <t>O sistema deve garantir que o status do pedid seja alterado para mostrar em tempo real seu desenvolvimento</t>
-  </si>
-  <si>
     <t>Alterar Status do Pedido</t>
   </si>
   <si>
@@ -233,6 +230,21 @@
   </si>
   <si>
     <t>É necessário guardar o nome, endereço completo e telefone do fornecedor.</t>
+  </si>
+  <si>
+    <t>RF09</t>
+  </si>
+  <si>
+    <t>Manter Histórico de Pedidos</t>
+  </si>
+  <si>
+    <t>O sistema deve garantir que o status do pedido seja alterado para mostrar em tempo real seu desenvolvimento</t>
+  </si>
+  <si>
+    <t>O sistema deve garantir que os pedidos não sejam excluídos do sistema</t>
+  </si>
+  <si>
+    <t>É importante guardar o histórico dos pedidos realizados dentro do sistema</t>
   </si>
 </sst>
 </file>
@@ -343,8 +355,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C3DFA80C-C66E-4135-A96D-D57065D42EAF}" name="Tabela2" displayName="Tabela2" ref="A1:E15" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E15" xr:uid="{E9B1E6C0-4AF0-4DD3-9D0F-1BC942418AA9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C3DFA80C-C66E-4135-A96D-D57065D42EAF}" name="Tabela2" displayName="Tabela2" ref="A1:E16" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E16" xr:uid="{E9B1E6C0-4AF0-4DD3-9D0F-1BC942418AA9}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{3D44EFBB-D00B-49AC-A911-D78CD2C295CC}" name="Código" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{8D35478D-82D4-4029-BDC0-0B4DC75370D4}" name="Prioridade" dataDxfId="3"/>
@@ -640,10 +652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD060A8F-9F0A-44FF-BE7A-714AC5A691CF}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -658,152 +670,152 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>1</v>
@@ -811,104 +823,121 @@
     </row>
     <row r="10" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
